--- a/REGULAR/CCR/BOFILL, ERNA.xlsx
+++ b/REGULAR/CCR/BOFILL, ERNA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="249">
   <si>
     <t>PERIOD</t>
   </si>
@@ -778,6 +778,9 @@
   </si>
   <si>
     <t>12/13,21,22,26,27/2023</t>
+  </si>
+  <si>
+    <t>1/4,5,11/2024</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1661,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1704,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1768,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1828,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1894,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1957,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2055,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2114,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2179,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2222,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2297,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2483,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2549,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2607,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2673,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +2729,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2804,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2847,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2913,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2969,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3067,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,7 +3130,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3196,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K424" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3571,12 +3574,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K423"/>
+  <dimension ref="A2:K424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="3660" topLeftCell="A403" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K420" sqref="K420"/>
+      <selection pane="bottomLeft" activeCell="K423" sqref="K423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3740,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>101.62299999999999</v>
+        <v>102.87299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3747,7 +3750,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261.31</v>
+        <v>261.56</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12671,15 +12674,17 @@
       <c r="B420" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C420" s="13"/>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D420" s="39">
         <v>5</v>
       </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
@@ -12710,7 +12715,9 @@
       <c r="A422" s="40">
         <v>45292</v>
       </c>
-      <c r="B422" s="20"/>
+      <c r="B422" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
       <c r="E422" s="9"/>
@@ -12722,25 +12729,49 @@
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
+      <c r="K422" s="20" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="40">
+      <c r="A423" s="40"/>
+      <c r="B423" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C423" s="13"/>
+      <c r="D423" s="39"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="39">
+        <v>1</v>
+      </c>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="47">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40">
         <v>45323</v>
       </c>
-      <c r="B423" s="15"/>
-      <c r="C423" s="41"/>
-      <c r="D423" s="42"/>
-      <c r="E423" s="9"/>
-      <c r="F423" s="15"/>
-      <c r="G423" s="41" t="str">
+      <c r="B424" s="15"/>
+      <c r="C424" s="41"/>
+      <c r="D424" s="42"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="15"/>
+      <c r="G424" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H423" s="42"/>
-      <c r="I423" s="9"/>
-      <c r="J423" s="12"/>
-      <c r="K423" s="15"/>
+      <c r="H424" s="42"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="12"/>
+      <c r="K424" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12912,7 +12943,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>362.93299999999999</v>
+        <v>364.43299999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
